--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_20_6.xlsx
@@ -518,991 +518,991 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_0</t>
+          <t>model_20_6_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9769500158380473</v>
+        <v>0.9901017263037959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8021067381428476</v>
+        <v>0.8178934662281557</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1929063339624125</v>
+        <v>0.996405003807196</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9963439291261796</v>
+        <v>0.6795125092813754</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9627559530890548</v>
+        <v>0.9795709571297653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1541353502263958</v>
+        <v>0.06618980178387614</v>
       </c>
       <c r="H2" t="n">
-        <v>1.323313153253462</v>
+        <v>1.217747229855808</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8397178842310246</v>
+        <v>0.04340612406198926</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08371260873681642</v>
+        <v>0.2225570436125622</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4617152538515891</v>
+        <v>0.1329815838372757</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4270521151412048</v>
+        <v>1.020209222762307</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3926007516885262</v>
+        <v>0.2572737875957753</v>
       </c>
       <c r="N2" t="n">
-        <v>1.010437728677111</v>
+        <v>1.004482237145451</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4093145784835007</v>
+        <v>0.2682264653638871</v>
       </c>
       <c r="P2" t="n">
-        <v>157.7398483299976</v>
+        <v>159.4304577590189</v>
       </c>
       <c r="Q2" t="n">
-        <v>251.5932868448491</v>
+        <v>253.2838962738703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_1</t>
+          <t>model_20_6_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9767113259824041</v>
+        <v>0.9903680290287151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8013990129633434</v>
+        <v>0.8178752509413618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1796383499028121</v>
+        <v>0.9959727334406142</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9961794004972376</v>
+        <v>0.6626545709134042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9620472551431748</v>
+        <v>0.9782708558433884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1557314703901475</v>
+        <v>0.06440903423613023</v>
       </c>
       <c r="H3" t="n">
-        <v>1.328045714787582</v>
+        <v>1.217869035562473</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8535221847371069</v>
+        <v>0.04862537330562615</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0874798006802895</v>
+        <v>0.2342637499060456</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4705009975912126</v>
+        <v>0.1414445122920974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4478185015157401</v>
+        <v>0.9435788395572107</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3946282686150949</v>
+        <v>0.2537893501235429</v>
       </c>
       <c r="N3" t="n">
-        <v>1.010545814649477</v>
+        <v>1.00436164723228</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4114284110031721</v>
+        <v>0.2645936881746817</v>
       </c>
       <c r="P3" t="n">
-        <v>157.7192441971996</v>
+        <v>159.4850027450817</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.5726827120511</v>
+        <v>253.3384412599332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_2</t>
+          <t>model_20_6_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9764636715296796</v>
+        <v>0.9896988789979222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8007308278914163</v>
+        <v>0.8178338881217325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1671725308381418</v>
+        <v>0.9968541527760184</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9960252368672318</v>
+        <v>0.6973354407663522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9613817897704244</v>
+        <v>0.9809381928202272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1573875368558599</v>
+        <v>0.06888364357319479</v>
       </c>
       <c r="H4" t="n">
-        <v>1.332513871440268</v>
+        <v>1.218145628927792</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8664918952560646</v>
+        <v>0.03798308191745429</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09100966650771103</v>
+        <v>0.2101802143924532</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4787507861881272</v>
+        <v>0.1240816481549537</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4664151880092238</v>
+        <v>1.105375080041432</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3967209811137544</v>
+        <v>0.2624569366071219</v>
       </c>
       <c r="N4" t="n">
-        <v>1.010657960062032</v>
+        <v>1.004664658566979</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4136102146054116</v>
+        <v>0.2736302717592441</v>
       </c>
       <c r="P4" t="n">
-        <v>157.6980882549632</v>
+        <v>159.3506730457152</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.5515267698147</v>
+        <v>253.2041115605666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_3</t>
+          <t>model_20_6_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9762142756135873</v>
+        <v>0.9905295541292782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8001043917500456</v>
+        <v>0.8178005606366738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1555326981558466</v>
+        <v>0.9955613141419656</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9958814975930204</v>
+        <v>0.6468023680437682</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9607606116301084</v>
+        <v>0.9770437236179188</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1590552484951316</v>
+        <v>0.06332891514490969</v>
       </c>
       <c r="H5" t="n">
-        <v>1.336702852802087</v>
+        <v>1.218368489973839</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8786022314959291</v>
+        <v>0.05359286594286086</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09430084713233586</v>
+        <v>0.2452720404246614</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4864515450081577</v>
+        <v>0.1494324531837611</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4830755414050658</v>
+        <v>0.8746387186054224</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3988173121808174</v>
+        <v>0.2516523696389718</v>
       </c>
       <c r="N5" t="n">
-        <v>1.010770894061772</v>
+        <v>1.004288503790516</v>
       </c>
       <c r="O5" t="n">
-        <v>0.415795790826003</v>
+        <v>0.262365732006723</v>
       </c>
       <c r="P5" t="n">
-        <v>157.6770073246103</v>
+        <v>159.518826517586</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.5304458394617</v>
+        <v>253.3722650324374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_4</t>
+          <t>model_20_6_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9759684004459396</v>
+        <v>0.9906115242586977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.799520380332813</v>
+        <v>0.8176860472419669</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1447174554582326</v>
+        <v>0.9951732135681742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.995748089437276</v>
+        <v>0.6319733908618308</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9601835756973043</v>
+        <v>0.9758927991919568</v>
       </c>
       <c r="G6" t="n">
-        <v>0.160699416873343</v>
+        <v>0.06278078051204462</v>
       </c>
       <c r="H6" t="n">
-        <v>1.340608139838247</v>
+        <v>1.219134241571529</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8898546462993708</v>
+        <v>0.05827880738787215</v>
       </c>
       <c r="J6" t="n">
-        <v>0.09735547739787555</v>
+        <v>0.255569769406251</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4936050719283978</v>
+        <v>0.1569243241448051</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4980121148494221</v>
+        <v>0.8126152731488798</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4008733177368419</v>
+        <v>0.250560931735266</v>
       </c>
       <c r="N6" t="n">
-        <v>1.010882233760329</v>
+        <v>1.004251385241344</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4179393247950657</v>
+        <v>0.2612278293318685</v>
       </c>
       <c r="P6" t="n">
-        <v>157.6564392698229</v>
+        <v>159.5362125903009</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.5098777846743</v>
+        <v>253.3896511051524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_5</t>
+          <t>model_20_6_3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.975729957752993</v>
+        <v>0.9891194688761527</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7989785163660249</v>
+        <v>0.817669180578301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1347167875055025</v>
+        <v>0.9973141262694211</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9956247437950239</v>
+        <v>0.7160459510610211</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9596500160003497</v>
+        <v>0.9823628117895868</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1622938842590047</v>
+        <v>0.07275816172540646</v>
       </c>
       <c r="H7" t="n">
-        <v>1.344231586679213</v>
+        <v>1.219247029029128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9002595597406967</v>
+        <v>0.03242934404150724</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1001797075196653</v>
+        <v>0.1971870212842707</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5002196230139287</v>
+        <v>0.1148081795880005</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5114038724571836</v>
+        <v>1.200036120729837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4028571511826551</v>
+        <v>0.2697372086409409</v>
       </c>
       <c r="N7" t="n">
-        <v>1.010990207809966</v>
+        <v>1.004927032961742</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4200076141377686</v>
+        <v>0.2812204800457835</v>
       </c>
       <c r="P7" t="n">
-        <v>157.6366929737565</v>
+        <v>159.2412283811157</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.4901314886079</v>
+        <v>253.0946668959671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_6</t>
+          <t>model_20_6_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9755012461072897</v>
+        <v>0.9906337554907075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7984777016306411</v>
+        <v>0.8175444787863331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1254913296903175</v>
+        <v>0.9948095430922266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9955110538701377</v>
+        <v>0.618158349879715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9591579004807158</v>
+        <v>0.974818609632874</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1638232800869426</v>
+        <v>0.06263212016122875</v>
       </c>
       <c r="H8" t="n">
-        <v>1.347580537120764</v>
+        <v>1.220080910486216</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9098579276174544</v>
+        <v>0.06266977887993171</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1027828518589778</v>
+        <v>0.2651633877764154</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5063203897382161</v>
+        <v>0.1639166942629577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5234202439658848</v>
+        <v>0.7568097043021563</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4047508864560306</v>
+        <v>0.2502641008239671</v>
       </c>
       <c r="N8" t="n">
-        <v>1.011093775347642</v>
+        <v>1.004241318268359</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4219819696423041</v>
+        <v>0.2609183617141509</v>
       </c>
       <c r="P8" t="n">
-        <v>157.6179339851781</v>
+        <v>159.5409540617013</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.4713725000296</v>
+        <v>253.3943925765527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_7</t>
+          <t>model_20_6_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9752842219671456</v>
+        <v>0.9906118927671911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7980163742200141</v>
+        <v>0.8173857601084348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1170160126752298</v>
+        <v>0.9944707181313998</v>
       </c>
       <c r="E9" t="n">
-        <v>0.99540657011634</v>
+        <v>0.6053365797452063</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9587057653982878</v>
+        <v>0.9738204842640312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1652745215113907</v>
+        <v>0.06277831629405208</v>
       </c>
       <c r="H9" t="n">
-        <v>1.350665435639844</v>
+        <v>1.221142263016154</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9186758326160611</v>
+        <v>0.06676076465465554</v>
       </c>
       <c r="J9" t="n">
-        <v>0.105175203622082</v>
+        <v>0.2740672462347208</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5119255181190716</v>
+        <v>0.1704139292660851</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5342024015900947</v>
+        <v>0.7066030681807066</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4065396924180845</v>
+        <v>0.2505560142843354</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011192050429972</v>
+        <v>1.004251218369574</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4238469287775014</v>
+        <v>0.2612227025348712</v>
       </c>
       <c r="P9" t="n">
-        <v>157.600294841745</v>
+        <v>159.5362910941467</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.4537333565964</v>
+        <v>253.3897296089982</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_8</t>
+          <t>model_20_6_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9750798367643609</v>
+        <v>0.9883130470710938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.797592670615806</v>
+        <v>0.8173640983353214</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1092483994336633</v>
+        <v>0.9977757884691968</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9953107686762505</v>
+        <v>0.7355204949152823</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9582913453564844</v>
+        <v>0.9838297710114056</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1666412463035193</v>
+        <v>0.07815070804906574</v>
       </c>
       <c r="H10" t="n">
-        <v>1.35349874359216</v>
+        <v>1.221287115392706</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9267574271461678</v>
+        <v>0.02685521665903392</v>
       </c>
       <c r="J10" t="n">
-        <v>0.107368757507504</v>
+        <v>0.1836632581689333</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5170630923268359</v>
+        <v>0.1052590997813106</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5438855836266412</v>
+        <v>1.305374912777112</v>
       </c>
       <c r="M10" t="n">
-        <v>0.408217155817243</v>
+        <v>0.2795544813610859</v>
       </c>
       <c r="N10" t="n">
-        <v>1.011284602219912</v>
+        <v>1.005292205099882</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4255958052663901</v>
+        <v>0.2914556943901813</v>
       </c>
       <c r="P10" t="n">
-        <v>157.5838240060793</v>
+        <v>159.0982323240538</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.4372625209307</v>
+        <v>252.9516708389052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_9</t>
+          <t>model_20_6_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9748884372036395</v>
+        <v>0.9905582023319914</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7972044299537938</v>
+        <v>0.8172174116628936</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1021399409659494</v>
+        <v>0.9941564194551112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.995223126960295</v>
+        <v>0.5934761823200677</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9579121209089668</v>
+        <v>0.9728963568291824</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1679211360473777</v>
+        <v>0.06313734448145383</v>
       </c>
       <c r="H11" t="n">
-        <v>1.356094910686719</v>
+        <v>1.222268009846661</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9341532226477706</v>
+        <v>0.07055561911453098</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1093754791849564</v>
+        <v>0.2823034958964162</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5217643459921789</v>
+        <v>0.1764294793206957</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5525790114693356</v>
+        <v>0.6614317483284661</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4097818151740969</v>
+        <v>0.2512714557633912</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011371273719107</v>
+        <v>1.004275531019476</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4272270754113566</v>
+        <v>0.2619686018388584</v>
       </c>
       <c r="P11" t="n">
-        <v>157.5685216761685</v>
+        <v>159.5248857087268</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.4219601910199</v>
+        <v>253.3783242235782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_10</t>
+          <t>model_20_6_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9747102751864555</v>
+        <v>0.9904822605115946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.796849444312457</v>
+        <v>0.8170451679990705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09565133805577597</v>
+        <v>0.9938661159669294</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9951431302771445</v>
+        <v>0.5825355012515212</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9575659664591728</v>
+        <v>0.9720435289242855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1691125062766476</v>
+        <v>0.06364516778412774</v>
       </c>
       <c r="H12" t="n">
-        <v>1.358468701304897</v>
+        <v>1.223419804019755</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9409041068841638</v>
+        <v>0.07406075473856114</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1112071534790107</v>
+        <v>0.2899010643015476</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5260556301815873</v>
+        <v>0.1819809095200543</v>
       </c>
       <c r="L12" t="n">
-        <v>0.560385026107055</v>
+        <v>0.6207879581311164</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4112329100116473</v>
+        <v>0.2522799393216348</v>
       </c>
       <c r="N12" t="n">
-        <v>1.011451950858964</v>
+        <v>1.004309919768335</v>
       </c>
       <c r="O12" t="n">
-        <v>0.428739946360322</v>
+        <v>0.2630200186300253</v>
       </c>
       <c r="P12" t="n">
-        <v>157.5543821358749</v>
+        <v>159.5088637508265</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.4078206507263</v>
+        <v>253.362302265678</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_11</t>
+          <t>model_20_6_1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9745451173861145</v>
+        <v>0.9872161128727657</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7965254782601969</v>
+        <v>0.8168735039668671</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08973873774282137</v>
+        <v>0.9982260490959611</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9950701313200194</v>
+        <v>0.7555685837206486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9572504452388493</v>
+        <v>0.9853167163047104</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1702169172480098</v>
+        <v>0.08548591208420336</v>
       </c>
       <c r="H13" t="n">
-        <v>1.360635063788086</v>
+        <v>1.22456772219354</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9470557054334042</v>
+        <v>0.02141875231320672</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1128786016940258</v>
+        <v>0.16974120659494</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5299671535637149</v>
+        <v>0.09557992188545529</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5674004974841318</v>
+        <v>1.424184280169197</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4125735295047536</v>
+        <v>0.292379739524139</v>
       </c>
       <c r="N13" t="n">
-        <v>1.011526739296854</v>
+        <v>1.00578893001988</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4301376388007148</v>
+        <v>0.3048269503451799</v>
       </c>
       <c r="P13" t="n">
-        <v>157.5413633429911</v>
+        <v>158.9188073751213</v>
       </c>
       <c r="Q13" t="n">
-        <v>251.3948018578426</v>
+        <v>252.7722458899727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_12</t>
+          <t>model_20_6_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9743925530920621</v>
+        <v>0.9903914651368405</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7962302536223257</v>
+        <v>0.8168732527775617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08435579339458876</v>
+        <v>0.993598765832207</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9950037033527284</v>
+        <v>0.5724704322494172</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9569632173041718</v>
+        <v>0.9712587061120814</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1712371153848317</v>
+        <v>0.06425231687318241</v>
       </c>
       <c r="H14" t="n">
-        <v>1.362609232300916</v>
+        <v>1.224569401897582</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9526562383445629</v>
+        <v>0.07728875067885682</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1143995947565059</v>
+        <v>0.2968905789183017</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5335279244726867</v>
+        <v>0.1870896647985793</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5737048971780099</v>
+        <v>0.584222910006848</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4138080658769615</v>
+        <v>0.2534804072767408</v>
       </c>
       <c r="N14" t="n">
-        <v>1.011595825014915</v>
+        <v>1.004351034655016</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4314247319421301</v>
+        <v>0.2642715929912914</v>
       </c>
       <c r="P14" t="n">
-        <v>157.5294120865982</v>
+        <v>159.4898749911479</v>
       </c>
       <c r="Q14" t="n">
-        <v>251.3828506014496</v>
+        <v>253.3433135059994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_13</t>
+          <t>model_20_6_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9742521489189725</v>
+        <v>0.9902915627735525</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7959616099589271</v>
+        <v>0.8167047905478797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07946451455468651</v>
+        <v>0.993353284682214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9949433120713922</v>
+        <v>0.5632329279496679</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9567021969743863</v>
+        <v>0.9705383089649944</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1721759987367839</v>
+        <v>0.06492036443649743</v>
       </c>
       <c r="H15" t="n">
-        <v>1.364405653715052</v>
+        <v>1.225695909603162</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9577452317185184</v>
+        <v>0.0802526996457031</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1157823665571864</v>
+        <v>0.3033054054149636</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5367637991378524</v>
+        <v>0.1917790452174269</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5793676863051626</v>
+        <v>0.551321137239306</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4149409581335444</v>
+        <v>0.2547947496250608</v>
       </c>
       <c r="N15" t="n">
-        <v>1.011659404263107</v>
+        <v>1.004396273461033</v>
       </c>
       <c r="O15" t="n">
-        <v>0.432605853767486</v>
+        <v>0.2656418896144431</v>
       </c>
       <c r="P15" t="n">
-        <v>157.5184761537217</v>
+        <v>159.4691878454542</v>
       </c>
       <c r="Q15" t="n">
-        <v>251.3719146685732</v>
+        <v>253.3226263603056</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_14</t>
+          <t>model_20_6_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9741231637841467</v>
+        <v>0.9901868143600152</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7957174472448901</v>
+        <v>0.8165419875407403</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07502072806161098</v>
+        <v>0.9931284092231393</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9948884475211575</v>
+        <v>0.5547684751270647</v>
       </c>
       <c r="F16" t="n">
-        <v>0.956465056455591</v>
+        <v>0.9698782730402014</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1730385229272859</v>
+        <v>0.06562081756014354</v>
       </c>
       <c r="H16" t="n">
-        <v>1.366038370908083</v>
+        <v>1.226784574061543</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9623686442776327</v>
+        <v>0.08296785469778073</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1170385934701288</v>
+        <v>0.3091833995662253</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5397036352704793</v>
+        <v>0.1960755080143393</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5844636235244933</v>
+        <v>0.521718881329257</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4159789933726051</v>
+        <v>0.2561656057321973</v>
       </c>
       <c r="N16" t="n">
-        <v>1.011717812626047</v>
+        <v>1.004443706704899</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4336880803157028</v>
+        <v>0.2670711059041238</v>
       </c>
       <c r="P16" t="n">
-        <v>157.5084820667854</v>
+        <v>159.4477245850364</v>
       </c>
       <c r="Q16" t="n">
-        <v>251.3619205816368</v>
+        <v>253.3011630998878</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_15</t>
+          <t>model_20_6_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.974005058011208</v>
+        <v>0.990080549385717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7954957623057184</v>
+        <v>0.8163863561426399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07099138403433014</v>
+        <v>0.9929228246167121</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9948386602993818</v>
+        <v>0.5470302741396773</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9562499960212113</v>
+        <v>0.9692748256921933</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1738282967747541</v>
+        <v>0.06633141193258048</v>
       </c>
       <c r="H17" t="n">
-        <v>1.367520779117091</v>
+        <v>1.227825281937256</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9665608618402342</v>
+        <v>0.08545009124358785</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1181785654128076</v>
+        <v>0.3145570605811095</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5423697441197806</v>
+        <v>0.2000036109905898</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5890434206515306</v>
+        <v>0.4950853684167404</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4169272080048916</v>
+        <v>0.257548853487218</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011771294485491</v>
+        <v>1.00449182669326</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4346766624079605</v>
+        <v>0.2685132413797933</v>
       </c>
       <c r="P17" t="n">
-        <v>157.499374534241</v>
+        <v>159.4261834183715</v>
       </c>
       <c r="Q17" t="n">
-        <v>251.3528130490924</v>
+        <v>253.279621933223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_16</t>
+          <t>model_20_6_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9738970898100904</v>
+        <v>0.9899751397127811</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7952947169096782</v>
+        <v>0.8162388783675876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06733896789870031</v>
+        <v>0.9927352201363432</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9947935437941617</v>
+        <v>0.5399647337437543</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9560550693753003</v>
+        <v>0.9687239618668748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1745502806327751</v>
+        <v>0.06703628690087031</v>
       </c>
       <c r="H18" t="n">
-        <v>1.368865170606139</v>
+        <v>1.228811466498104</v>
       </c>
       <c r="I18" t="n">
-        <v>0.970360915388913</v>
+        <v>0.08771523504701531</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1192115925283662</v>
+        <v>0.3194636039800915</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5447862539586397</v>
+        <v>0.2035894247966901</v>
       </c>
       <c r="L18" t="n">
-        <v>0.593157122328183</v>
+        <v>0.4711174073892904</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4177921500372824</v>
+        <v>0.258913666886996</v>
       </c>
       <c r="N18" t="n">
-        <v>1.011820185746374</v>
+        <v>1.004539559375344</v>
       </c>
       <c r="O18" t="n">
-        <v>0.435578426813347</v>
+        <v>0.269936157711553</v>
       </c>
       <c r="P18" t="n">
-        <v>157.4910848753646</v>
+        <v>159.4050424213314</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.3445233902161</v>
+        <v>253.2584809361829</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_17</t>
+          <t>model_20_6_0</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9737986380571353</v>
+        <v>0.9857487915036161</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7951125314644463</v>
+        <v>0.8161391745220994</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06403433436868278</v>
+        <v>0.9986461512481195</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9947526587803541</v>
+        <v>0.7759172367503191</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9558786404587474</v>
+        <v>0.9867917230082983</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1752086279581144</v>
+        <v>0.09529789683610045</v>
       </c>
       <c r="H19" t="n">
-        <v>1.370083445517292</v>
+        <v>1.229478186571977</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9737991283160554</v>
+        <v>0.01634642256448617</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1201477317013193</v>
+        <v>0.1556104333481385</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5469734470471831</v>
+        <v>0.0859784574967585</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5968540574450045</v>
+        <v>1.557588174111396</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4185792970968755</v>
+        <v>0.3087035743818015</v>
       </c>
       <c r="N19" t="n">
-        <v>1.011864767672241</v>
+        <v>1.006453377432325</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4363990843528861</v>
+        <v>0.3218457246477296</v>
       </c>
       <c r="P19" t="n">
-        <v>157.4835557107123</v>
+        <v>158.7014950748834</v>
       </c>
       <c r="Q19" t="n">
-        <v>251.3369942255637</v>
+        <v>252.5549335897348</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9737088697993247</v>
+        <v>0.9898723423540213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7949475334239874</v>
+        <v>0.8161001076828409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06104068065940893</v>
+        <v>0.9925642641312651</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9947156448133219</v>
+        <v>0.5335233014883248</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9557188386504316</v>
+        <v>0.9682218247160848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1758089087114386</v>
+        <v>0.06772369331223484</v>
       </c>
       <c r="H20" t="n">
-        <v>1.371186788173587</v>
+        <v>1.229739426705986</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9769137910431381</v>
+        <v>0.08977936451130236</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1209952359885466</v>
+        <v>0.3239367461803829</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5489545135158423</v>
+        <v>0.2068580553458426</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6001842364396238</v>
+        <v>0.4495523017912544</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4192957294218945</v>
+        <v>0.2602377630403298</v>
       </c>
       <c r="N20" t="n">
-        <v>1.011905417449362</v>
+        <v>1.004586109122707</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4371460166852005</v>
+        <v>0.2713166233793912</v>
       </c>
       <c r="P20" t="n">
-        <v>157.4767152395017</v>
+        <v>159.3846383704419</v>
       </c>
       <c r="Q20" t="n">
-        <v>251.3301537543531</v>
+        <v>253.2380768852933</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9736271947086906</v>
+        <v>0.9897733825042524</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7947982309035161</v>
+        <v>0.815970344053073</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05833285497774998</v>
+        <v>0.9924087047009856</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9946821637688908</v>
+        <v>0.5276584292549867</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9555742926082464</v>
+        <v>0.9677647122626051</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1763550704185879</v>
+        <v>0.06838543828330812</v>
       </c>
       <c r="H21" t="n">
-        <v>1.372185174815454</v>
+        <v>1.23060715669575</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9797310720452705</v>
+        <v>0.0916575951317512</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1217618473780109</v>
+        <v>0.3280095061576611</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5507464539223278</v>
+        <v>0.2098336004284781</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6031784962647977</v>
+        <v>0.4301519625568171</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4199465089967863</v>
+        <v>0.261506096072937</v>
       </c>
       <c r="N21" t="n">
-        <v>1.011942402396065</v>
+        <v>1.00463092113015</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4378245012938948</v>
+        <v>0.2726389519750077</v>
       </c>
       <c r="P21" t="n">
-        <v>157.4705117413884</v>
+        <v>159.3651907352259</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.3239502562398</v>
+        <v>253.2186292500774</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.973552979366492</v>
+        <v>0.9896791559232497</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7946631739189275</v>
+        <v>0.8158495672220306</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05588534029104619</v>
+        <v>0.992267430702642</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9946518843633905</v>
+        <v>0.5223260507634782</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9554436251396498</v>
+        <v>0.9673492672436789</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1768513487536005</v>
+        <v>0.0690155318643464</v>
       </c>
       <c r="H22" t="n">
-        <v>1.373088301493278</v>
+        <v>1.231414791921056</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9822775198007502</v>
+        <v>0.09336334289056894</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1224551512314957</v>
+        <v>0.3317124849847982</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5523663413523247</v>
+        <v>0.2125379139376836</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6058674557834781</v>
+        <v>0.4126900302697966</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4205369766781519</v>
+        <v>0.2627080734662458</v>
       </c>
       <c r="N22" t="n">
-        <v>1.011976009343475</v>
+        <v>1.004673589770604</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4384401064068928</v>
+        <v>0.273892100034386</v>
       </c>
       <c r="P22" t="n">
-        <v>157.4648914736395</v>
+        <v>159.3468474004654</v>
       </c>
       <c r="Q22" t="n">
-        <v>251.3183299884909</v>
+        <v>253.2002859153168</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9734856328209173</v>
+        <v>0.9895901020976293</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7945410996571141</v>
+        <v>0.8157376341534052</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05367525547621366</v>
+        <v>0.9921390671041143</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9946244981263882</v>
+        <v>0.5174827890394691</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9553255940399347</v>
+        <v>0.9669718764213592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1773016954139608</v>
+        <v>0.06961103520632501</v>
       </c>
       <c r="H23" t="n">
-        <v>1.373904612644124</v>
+        <v>1.232163288866359</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9845769403299603</v>
+        <v>0.09491320997913361</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1230822105588622</v>
+        <v>0.3350758050579792</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5538295754444112</v>
+        <v>0.2149945160211245</v>
       </c>
       <c r="L23" t="n">
-        <v>0.6082906283478904</v>
+        <v>0.3969778213512529</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4210720786444535</v>
+        <v>0.2638390327573329</v>
       </c>
       <c r="N23" t="n">
-        <v>1.012006505892415</v>
+        <v>1.004713916031262</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4389979887717136</v>
+        <v>0.2750712066039032</v>
       </c>
       <c r="P23" t="n">
-        <v>157.4598050070904</v>
+        <v>159.3296643447895</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3132435219418</v>
+        <v>253.1831028596409</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.973424518296072</v>
+        <v>0.9895065116468713</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7944308073953485</v>
+        <v>0.8156342694505277</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05167686222289825</v>
+        <v>0.9920226738462653</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9945997984764853</v>
+        <v>0.5130861257088868</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9552189273255213</v>
+        <v>0.9666294115774419</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1777103685230078</v>
+        <v>0.07017000493544265</v>
       </c>
       <c r="H24" t="n">
-        <v>1.3746421375064</v>
+        <v>1.232854489110451</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9866561123333464</v>
+        <v>0.0963185467080796</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1236477554291957</v>
+        <v>0.3381289925331598</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5551519250064941</v>
+        <v>0.2172237696206197</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6104662022888145</v>
+        <v>0.3828418778284851</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4215570762340585</v>
+        <v>0.2648962154041515</v>
       </c>
       <c r="N24" t="n">
-        <v>1.012034180394231</v>
+        <v>1.004751768310851</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4395036337127916</v>
+        <v>0.2761733957046666</v>
       </c>
       <c r="P24" t="n">
-        <v>157.4552003941087</v>
+        <v>159.3136686787649</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.3086389089601</v>
+        <v>253.1671071936163</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9733691533164139</v>
+        <v>0.9894285049111674</v>
       </c>
       <c r="C25" t="n">
-        <v>0.794331197666031</v>
+        <v>0.8155391211487553</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04987434362545506</v>
+        <v>0.9919171800858401</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9945774429206806</v>
+        <v>0.5090999694781015</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9551226433150138</v>
+        <v>0.966318950539545</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1780805943969136</v>
+        <v>0.07069163633628275</v>
       </c>
       <c r="H25" t="n">
-        <v>1.375308228225007</v>
+        <v>1.233490746242522</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9885314920651228</v>
+        <v>0.0975922824805826</v>
       </c>
       <c r="J25" t="n">
-        <v>0.124159627862952</v>
+        <v>0.3408971103904655</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5563455599640373</v>
+        <v>0.2192446964355241</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6124285384334949</v>
+        <v>0.3701207872243753</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4219959649059616</v>
+        <v>0.2658789881436341</v>
       </c>
       <c r="N25" t="n">
-        <v>1.012059251328416</v>
+        <v>1.004787092115698</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4399612067840823</v>
+        <v>0.277198007114289</v>
       </c>
       <c r="P25" t="n">
-        <v>157.4510381073042</v>
+        <v>159.2988560220166</v>
       </c>
       <c r="Q25" t="n">
-        <v>251.3044766221556</v>
+        <v>253.152294536868</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9733189866302181</v>
+        <v>0.9893560495349707</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7942412133307617</v>
+        <v>0.8154517329871642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04824496341787943</v>
+        <v>0.9918216791301652</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9945573174577736</v>
+        <v>0.505487985182955</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9550356860119316</v>
+        <v>0.9660376935252557</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1784160592585014</v>
+        <v>0.07117614577053635</v>
       </c>
       <c r="H26" t="n">
-        <v>1.375909953889292</v>
+        <v>1.234075111281466</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9902267348332028</v>
+        <v>0.09874536473929449</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1246204381317132</v>
+        <v>0.34340539096173</v>
       </c>
       <c r="K26" t="n">
-        <v>0.557423571528218</v>
+        <v>0.2210755214753027</v>
       </c>
       <c r="L26" t="n">
-        <v>0.6141920405365018</v>
+        <v>0.3586736950415124</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4223932519092859</v>
+        <v>0.26678857878578</v>
       </c>
       <c r="N26" t="n">
-        <v>1.012081968318392</v>
+        <v>1.004819902097372</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4403754071176356</v>
+        <v>0.2781463209131833</v>
       </c>
       <c r="P26" t="n">
-        <v>157.447274089245</v>
+        <v>159.2851950960249</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3007126040964</v>
+        <v>253.1386336108763</v>
       </c>
     </row>
   </sheetData>
